--- a/article/新建 Microsoft Excel 工作表 (自动保存的).xlsx
+++ b/article/新建 Microsoft Excel 工作表 (自动保存的).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,7 +149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$28</c:f>
+              <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -173,7 +172,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$D$27:$H$27</c:f>
+              <c:f>Sheet2!$H$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -196,24 +195,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$28:$H$28</c:f>
+              <c:f>Sheet2!$H$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.236893203883495</c:v>
+                  <c:v>0.444660194174757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36516716983254899</c:v>
+                  <c:v>0.431285041909655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71298514614278896</c:v>
+                  <c:v>0.54575946334451397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84955752212389402</c:v>
+                  <c:v>0.185840707964602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,7 +228,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$29</c:f>
+              <c:f>Sheet2!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -239,7 +238,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -252,7 +251,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$D$27:$H$27</c:f>
+              <c:f>Sheet2!$H$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -275,7 +274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$29:$H$29</c:f>
+              <c:f>Sheet2!$H$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -289,10 +288,10 @@
                   <c:v>0.22328701485385699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.185840707964602</c:v>
+                  <c:v>0.83185840707964598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +444,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -522,6 +523,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1928,16 +1930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>439616</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30773</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,23 +2037,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2087,23 +2072,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2258,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2782,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2851,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.55506241331484052</v>
+        <v>0.444660194174757</v>
       </c>
       <c r="I2">
-        <v>0.48824413412161149</v>
+        <v>0.431285041909655</v>
       </c>
       <c r="J2">
-        <v>0.66828667259908292</v>
+        <v>0.54575946334451397</v>
       </c>
       <c r="K2">
-        <v>0.6750948166877373</v>
+        <v>0.185840707964602</v>
       </c>
       <c r="L2">
-        <v>0.5702857142857144</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2890,19 +2858,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.16865464632454924</v>
+        <v>0.19689320388349499</v>
       </c>
       <c r="I3">
-        <v>2.707720002250184E-2</v>
+        <v>4.30910011438429E-2</v>
       </c>
       <c r="J3">
-        <v>0.15873776439181314</v>
+        <v>0.22328701485385699</v>
       </c>
       <c r="K3">
-        <v>0.16434892541087223</v>
+        <v>0.83185840707964598</v>
       </c>
       <c r="L3">
-        <v>0.13485714285714287</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">

--- a/article/新建 Microsoft Excel 工作表 (自动保存的).xlsx
+++ b/article/新建 Microsoft Excel 工作表 (自动保存的).xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$A$1</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>甲锅炉房</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,7 +525,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -795,6 +796,1582 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3134733025645705E-2"/>
+          <c:y val="0.1677460265794446"/>
+          <c:w val="0.80557295615272217"/>
+          <c:h val="0.79813185330692349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$K$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35372874046016201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50023957834211796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79646017699115101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70807453416149102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-343D-448A-AB6A-A72490C9B540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$K$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17087378640776699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6902998368617497E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25682798275035901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212389380530973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28571428571428598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-343D-448A-AB6A-A72490C9B540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="572289800"/>
+        <c:axId val="572288816"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="572289800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572288816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572288816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572289800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68484858511140223"/>
+          <c:y val="5.6157873966606112E-2"/>
+          <c:w val="0.26666658182881353"/>
+          <c:h val="0.13510494377404214"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3134733025645705E-2"/>
+          <c:y val="0.1677460265794446"/>
+          <c:w val="0.80557295615272217"/>
+          <c:h val="0.79813185330692349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$U$3:$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$U$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61708737864077701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43991074274784803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.924772400574988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90265486725663702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98136645962732905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15B8-480C-916E-301F695BFBC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$U$3:$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$U$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28271844660194201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4253595604642898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.181600383325347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38938053097345099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22360248447205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15B8-480C-916E-301F695BFBC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="572289800"/>
+        <c:axId val="572288816"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="572289800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572288816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572288816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572289800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68484858511140223"/>
+          <c:y val="5.6157873966606112E-2"/>
+          <c:w val="0.26666658182881353"/>
+          <c:h val="0.13510494377404214"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12461272877803029"/>
+          <c:y val="0.18594474277287779"/>
+          <c:w val="0.71226655392908089"/>
+          <c:h val="0.74816579023028484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$L$33:$P$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$34:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A289-41F6-8E08-BE8BFDC8DB8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$L$33:$P$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4500000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A289-41F6-8E08-BE8BFDC8DB8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="296161104"/>
+        <c:axId val="296154872"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="296161104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296154872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="296154872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296161104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66617468201090246"/>
+          <c:y val="4.8192771084337352E-2"/>
+          <c:w val="0.30100480516858463"/>
+          <c:h val="0.16014103658729403"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14943938001440671"/>
+          <c:y val="0.18564708919581774"/>
+          <c:w val="0.73897612956109182"/>
+          <c:h val="0.76633088077105116"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$R$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$S$33:$W$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$S$34:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66190000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48280000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7570-4973-9833-769C131B0B7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$S$33:$W$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$S$35:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6300000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7570-4973-9833-769C131B0B7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="564179048"/>
+        <c:axId val="564177408"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="564179048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564177408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564177408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564179048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63459499739188752"/>
+          <c:y val="2.6229508196721311E-2"/>
+          <c:w val="0.32807570977917977"/>
+          <c:h val="0.14371636332343704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -875,6 +2452,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -1864,6 +3601,2026 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1944,6 +5701,140 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95981</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2227,7 +6118,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I1" sqref="I1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3179,4 +7070,1866 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>14.72</v>
+      </c>
+      <c r="B2">
+        <v>316.38</v>
+      </c>
+      <c r="C2">
+        <v>17.27</v>
+      </c>
+      <c r="D2">
+        <v>0.12</v>
+      </c>
+      <c r="E2">
+        <v>1.36</v>
+      </c>
+      <c r="F2">
+        <f>A2*0.3/40+B2*0.175/556+C2*0.175/25+D2*0.175/1.5+E2*0.175/1.5</f>
+        <v>0.50353670263788963</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>31.15</v>
+      </c>
+      <c r="B3">
+        <v>556.14</v>
+      </c>
+      <c r="C3">
+        <v>5.86</v>
+      </c>
+      <c r="D3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.97</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="0">A3*0.3/40+B3*0.175/556+C3*0.175/25+D3*0.175/1.5+E3*0.175/1.5</f>
+        <v>0.69702239808153466</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.35372874046016201</v>
+      </c>
+      <c r="M3">
+        <v>0.50023957834211796</v>
+      </c>
+      <c r="N3">
+        <v>0.79646017699115101</v>
+      </c>
+      <c r="O3">
+        <v>0.70807453416149102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>211.49</v>
+      </c>
+      <c r="C4">
+        <v>11.63</v>
+      </c>
+      <c r="D4">
+        <v>0.92</v>
+      </c>
+      <c r="E4">
+        <v>0.89</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.60664276378896875</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.17087378640776699</v>
+      </c>
+      <c r="L4">
+        <v>3.6902998368617497E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.25682798275035901</v>
+      </c>
+      <c r="N4">
+        <v>0.212389380530973</v>
+      </c>
+      <c r="O4">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.61708737864077701</v>
+      </c>
+      <c r="V4">
+        <v>0.43991074274784803</v>
+      </c>
+      <c r="W4">
+        <v>0.924772400574988</v>
+      </c>
+      <c r="X4">
+        <v>0.90265486725663702</v>
+      </c>
+      <c r="Y4">
+        <v>0.98136645962732905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13.35</v>
+      </c>
+      <c r="B5">
+        <v>217.59</v>
+      </c>
+      <c r="C5">
+        <v>16.07</v>
+      </c>
+      <c r="D5">
+        <v>0.98</v>
+      </c>
+      <c r="E5">
+        <v>0.81</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.48993439448441245</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0.28271844660194201</v>
+      </c>
+      <c r="V5">
+        <v>4.4253595604642898E-3</v>
+      </c>
+      <c r="W5">
+        <v>0.181600383325347</v>
+      </c>
+      <c r="X5">
+        <v>0.38938053097345099</v>
+      </c>
+      <c r="Y5">
+        <v>0.22360248447205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23.14</v>
+      </c>
+      <c r="B6">
+        <v>257.45</v>
+      </c>
+      <c r="C6">
+        <v>20.49</v>
+      </c>
+      <c r="D6">
+        <v>1.04</v>
+      </c>
+      <c r="E6">
+        <v>1.33</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.67451192446043162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26.74</v>
+      </c>
+      <c r="B7">
+        <v>170.68</v>
+      </c>
+      <c r="C7">
+        <v>22.06</v>
+      </c>
+      <c r="D7">
+        <v>0.31</v>
+      </c>
+      <c r="E7">
+        <v>1.27</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.59302455635491602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18.7</v>
+      </c>
+      <c r="B8">
+        <v>252.85</v>
+      </c>
+      <c r="C8">
+        <v>12.58</v>
+      </c>
+      <c r="D8">
+        <v>0.96</v>
+      </c>
+      <c r="E8">
+        <v>0.93</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.52839408273381294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15.22</v>
+      </c>
+      <c r="B10">
+        <v>23.71</v>
+      </c>
+      <c r="C10">
+        <v>2.76</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>0.11</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.15726601318944844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B11">
+        <v>36.31</v>
+      </c>
+      <c r="C11">
+        <v>6.79</v>
+      </c>
+      <c r="D11">
+        <v>0.02</v>
+      </c>
+      <c r="E11">
+        <v>-0.25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.10375017386091127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11.65</v>
+      </c>
+      <c r="B12">
+        <v>42.53</v>
+      </c>
+      <c r="C12">
+        <v>6.55</v>
+      </c>
+      <c r="D12">
+        <v>0.26</v>
+      </c>
+      <c r="E12">
+        <v>0.21</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.20144457434052757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10.63</v>
+      </c>
+      <c r="B13">
+        <v>64.59</v>
+      </c>
+      <c r="C13">
+        <v>1.19</v>
+      </c>
+      <c r="D13">
+        <v>0.38</v>
+      </c>
+      <c r="E13">
+        <v>0.37</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.19588458633093525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14.53</v>
+      </c>
+      <c r="B14">
+        <v>25.21</v>
+      </c>
+      <c r="C14">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.46</v>
+      </c>
+      <c r="E14">
+        <v>0.11</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.21826980215827341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.25</v>
+      </c>
+      <c r="B15">
+        <v>22.85</v>
+      </c>
+      <c r="C15">
+        <v>3.4</v>
+      </c>
+      <c r="D15">
+        <v>0.06</v>
+      </c>
+      <c r="E15">
+        <v>-0.12</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.8366996402877684E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12.32</v>
+      </c>
+      <c r="B16">
+        <v>45.83</v>
+      </c>
+      <c r="C16">
+        <v>5.85</v>
+      </c>
+      <c r="D16">
+        <v>0.23</v>
+      </c>
+      <c r="E16">
+        <v>0.18</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.19560824340527574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.29009708737864098</v>
+      </c>
+      <c r="B18">
+        <v>0.55041347109452599</v>
+      </c>
+      <c r="C18">
+        <v>0.77048394825107802</v>
+      </c>
+      <c r="D18">
+        <v>8.8495575221238895E-2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.92815533980582499</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.223766171538093</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.75776397515527905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.35372874046016201</v>
+      </c>
+      <c r="C20">
+        <v>0.50023957834211796</v>
+      </c>
+      <c r="D20">
+        <v>0.79646017699115101</v>
+      </c>
+      <c r="E20">
+        <v>0.70807453416149102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.236893203883495</v>
+      </c>
+      <c r="B21">
+        <v>0.36516716983254899</v>
+      </c>
+      <c r="C21">
+        <v>0.71298514614278896</v>
+      </c>
+      <c r="D21">
+        <v>0.84955752212389402</v>
+      </c>
+      <c r="E21">
+        <v>0.658385093167702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.61708737864077701</v>
+      </c>
+      <c r="B22">
+        <v>0.43991074274784803</v>
+      </c>
+      <c r="C22">
+        <v>0.924772400574988</v>
+      </c>
+      <c r="D22">
+        <v>0.90265486725663702</v>
+      </c>
+      <c r="E22">
+        <v>0.98136645962732905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.75689320388349501</v>
+      </c>
+      <c r="B23">
+        <v>0.27720377280654102</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.25663716814159299</v>
+      </c>
+      <c r="E23">
+        <v>0.94409937888198803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.444660194174757</v>
+      </c>
+      <c r="B24">
+        <v>0.431285041909655</v>
+      </c>
+      <c r="C24">
+        <v>0.54575946334451397</v>
+      </c>
+      <c r="D24">
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="E24">
+        <v>0.73291925465838503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.30951456310679598</v>
+      </c>
+      <c r="B26">
+        <v>1.61263102627088E-3</v>
+      </c>
+      <c r="C26">
+        <v>7.5227599425012004E-2</v>
+      </c>
+      <c r="D26">
+        <v>8.8495575221238902E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.22360248447205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8.9320388349514598E-2</v>
+      </c>
+      <c r="B27">
+        <v>2.5239550713495498E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.26832774317201702</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.17087378640776699</v>
+      </c>
+      <c r="B28">
+        <v>3.6902998368617497E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.25682798275035901</v>
+      </c>
+      <c r="D28">
+        <v>0.212389380530973</v>
+      </c>
+      <c r="E28">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.13126213592232999</v>
+      </c>
+      <c r="B29">
+        <v>7.8268859344821806E-2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.31858407079646001</v>
+      </c>
+      <c r="E29">
+        <v>0.38509316770186303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.28271844660194201</v>
+      </c>
+      <c r="B30">
+        <v>4.4253595604642898E-3</v>
+      </c>
+      <c r="C30">
+        <v>0.181600383325347</v>
+      </c>
+      <c r="D30">
+        <v>0.38938053097345099</v>
+      </c>
+      <c r="E30">
+        <v>0.22360248447205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.1058936272161</v>
+      </c>
+      <c r="D31">
+        <v>3.5398230088495602E-2</v>
+      </c>
+      <c r="E31">
+        <v>8.0745341614906804E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.19689320388349499</v>
+      </c>
+      <c r="B32">
+        <v>4.30910011438429E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.22328701485385699</v>
+      </c>
+      <c r="D32">
+        <v>0.185840707964602</v>
+      </c>
+      <c r="E32">
+        <v>0.26708074534161502</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>1.36</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>0.97</v>
+      </c>
+      <c r="L37">
+        <v>0.75776397515527905</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>0.89</v>
+      </c>
+      <c r="L38">
+        <v>0.70807453416149102</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>0.81</v>
+      </c>
+      <c r="L39">
+        <v>0.658385093167702</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1.33</v>
+      </c>
+      <c r="L40">
+        <v>0.98136645962732905</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>1.27</v>
+      </c>
+      <c r="L41">
+        <v>0.94409937888198803</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>0.93</v>
+      </c>
+      <c r="L42">
+        <v>0.73291925465838503</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0.11</v>
+      </c>
+      <c r="L43">
+        <v>0.22360248447205</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>-0.25</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>0.21</v>
+      </c>
+      <c r="L45">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>0.37</v>
+      </c>
+      <c r="L46">
+        <v>0.38509316770186303</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>0.11</v>
+      </c>
+      <c r="L47">
+        <v>0.22360248447205</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>-0.12</v>
+      </c>
+      <c r="L48">
+        <v>8.0745341614906804E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>0.18</v>
+      </c>
+      <c r="L49">
+        <v>0.26708074534161502</v>
+      </c>
+    </row>
+    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0.75776397515527905</v>
+      </c>
+      <c r="M51">
+        <v>0.70807453416149102</v>
+      </c>
+      <c r="N51">
+        <v>0.658385093167702</v>
+      </c>
+      <c r="O51">
+        <v>0.98136645962732905</v>
+      </c>
+      <c r="P51">
+        <v>0.94409937888198803</v>
+      </c>
+      <c r="Q51">
+        <v>0.73291925465838503</v>
+      </c>
+      <c r="R51">
+        <v>0.22360248447205</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="U51">
+        <v>0.38509316770186303</v>
+      </c>
+    </row>
+    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>14.72</v>
+      </c>
+      <c r="I57">
+        <v>0.29009708737864098</v>
+      </c>
+    </row>
+    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>31.15</v>
+      </c>
+      <c r="I58">
+        <v>0.92815533980582499</v>
+      </c>
+    </row>
+    <row r="59" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>33</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>13.35</v>
+      </c>
+      <c r="I60">
+        <v>0.236893203883495</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>23.14</v>
+      </c>
+      <c r="I61">
+        <v>0.61708737864077701</v>
+      </c>
+    </row>
+    <row r="62" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>26.74</v>
+      </c>
+      <c r="I62">
+        <v>0.75689320388349501</v>
+      </c>
+    </row>
+    <row r="63" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>18.7</v>
+      </c>
+      <c r="I63">
+        <v>0.444660194174757</v>
+      </c>
+    </row>
+    <row r="64" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>15.22</v>
+      </c>
+      <c r="I64">
+        <v>0.30951456310679598</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="I65">
+        <v>8.9320388349514598E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>11.65</v>
+      </c>
+      <c r="I66">
+        <v>0.17087378640776699</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>10.63</v>
+      </c>
+      <c r="I67">
+        <v>0.13126213592232999</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>14.53</v>
+      </c>
+      <c r="I68">
+        <v>0.28271844660194201</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>7.25</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>12.32</v>
+      </c>
+      <c r="I70">
+        <v>0.19689320388349499</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>14.72</v>
+      </c>
+      <c r="B1">
+        <v>72.38</v>
+      </c>
+      <c r="C1">
+        <v>-8.99</v>
+      </c>
+      <c r="D1">
+        <v>0.25</v>
+      </c>
+      <c r="E1">
+        <v>0.23</v>
+      </c>
+      <c r="F1">
+        <f>A1*0.3/35+B1*0.175/85+C1*0.175/10+D1*0.175/0.4+E1*0.175/0.4</f>
+        <v>0.32786407563025211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>31.15</v>
+      </c>
+      <c r="B2">
+        <v>57.14</v>
+      </c>
+      <c r="C2">
+        <v>-9.4700000000000006</v>
+      </c>
+      <c r="D2">
+        <v>0.34</v>
+      </c>
+      <c r="E2">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f>A2*0.3/35+B2*0.175/85+C2*0.175/10+D2*0.175/0.4+E2*0.175/0.4</f>
+        <v>0.46829117647058816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="C3">
+        <v>7.97</v>
+      </c>
+      <c r="D3">
+        <v>-0.3</v>
+      </c>
+      <c r="E3">
+        <v>-0.26</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="0">A3*0.3/35+B3*0.175/85+C3*0.175/10+D3*0.175/0.4+E3*0.175/0.4</f>
+        <v>0.32863508403361341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13.35</v>
+      </c>
+      <c r="B4">
+        <v>80.59</v>
+      </c>
+      <c r="C4">
+        <v>-7.64</v>
+      </c>
+      <c r="D4">
+        <v>-0.38</v>
+      </c>
+      <c r="E4">
+        <v>0.34</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.12914915966386559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23.14</v>
+      </c>
+      <c r="B5">
+        <v>62.45</v>
+      </c>
+      <c r="C5">
+        <v>7.93</v>
+      </c>
+      <c r="D5">
+        <v>-0.23</v>
+      </c>
+      <c r="E5">
+        <v>0.22</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.46131638655462187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>26.74</v>
+      </c>
+      <c r="B6">
+        <v>60.68</v>
+      </c>
+      <c r="C6">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D6">
+        <v>0.31</v>
+      </c>
+      <c r="E6">
+        <v>-0.19</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.55905441176470583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18.7</v>
+      </c>
+      <c r="B7">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="C7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D7">
+        <v>0.24</v>
+      </c>
+      <c r="E7">
+        <v>0.22</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.6712651260504201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15.22</v>
+      </c>
+      <c r="B9">
+        <v>21.71</v>
+      </c>
+      <c r="C9">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="D9">
+        <v>-0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.09</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.14365420168067225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B10">
+        <v>22.31</v>
+      </c>
+      <c r="C10">
+        <v>-3.45</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>0.11</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.12866449579831932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11.65</v>
+      </c>
+      <c r="B11">
+        <v>26.53</v>
+      </c>
+      <c r="C11">
+        <v>-0.82</v>
+      </c>
+      <c r="D11">
+        <v>-0.03</v>
+      </c>
+      <c r="E11">
+        <v>0.06</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.15325273109243698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10.63</v>
+      </c>
+      <c r="B12">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="C12">
+        <v>3.45</v>
+      </c>
+      <c r="D12">
+        <v>-0.04</v>
+      </c>
+      <c r="E12">
+        <v>-0.12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.15064516806722691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14.53</v>
+      </c>
+      <c r="B13">
+        <v>40.21</v>
+      </c>
+      <c r="C13">
+        <v>3.41</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>-0.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.2276281512605042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.25</v>
+      </c>
+      <c r="B14">
+        <v>32.85</v>
+      </c>
+      <c r="C14">
+        <v>1.48</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.19067521008403363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12.32</v>
+      </c>
+      <c r="B15">
+        <v>30.83</v>
+      </c>
+      <c r="C15">
+        <v>3.59</v>
+      </c>
+      <c r="D15">
+        <v>-0.01</v>
+      </c>
+      <c r="E15">
+        <v>0.09</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.26689852941176467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14.72</v>
+      </c>
+      <c r="B18">
+        <v>72.38</v>
+      </c>
+      <c r="C18">
+        <v>8.99</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.64251407563025198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>31.15</v>
+      </c>
+      <c r="B19">
+        <v>57.14</v>
+      </c>
+      <c r="C19">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="D19">
+        <v>0.34</v>
+      </c>
+      <c r="E19">
+        <v>0.23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.79974117647058818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="C20">
+        <v>7.97</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>0.26</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.8186350840336134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13.35</v>
+      </c>
+      <c r="B21">
+        <v>80.59</v>
+      </c>
+      <c r="C21">
+        <v>7.64</v>
+      </c>
+      <c r="D21">
+        <v>0.38</v>
+      </c>
+      <c r="E21">
+        <v>0.34</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.72904915966386552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23.14</v>
+      </c>
+      <c r="B22">
+        <v>62.45</v>
+      </c>
+      <c r="C22">
+        <v>7.93</v>
+      </c>
+      <c r="D22">
+        <v>0.23</v>
+      </c>
+      <c r="E22">
+        <v>0.22</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.66256638655462174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26.74</v>
+      </c>
+      <c r="B23">
+        <v>60.68</v>
+      </c>
+      <c r="C23">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D23">
+        <v>0.31</v>
+      </c>
+      <c r="E23">
+        <v>0.19</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.72530441176470584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18.7</v>
+      </c>
+      <c r="B24">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="C24">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D24">
+        <v>0.24</v>
+      </c>
+      <c r="E24">
+        <v>0.22</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.6712651260504201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15.22</v>
+      </c>
+      <c r="B25">
+        <v>21.71</v>
+      </c>
+      <c r="C25">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.08</v>
+      </c>
+      <c r="E25">
+        <v>0.09</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.28540420168067226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B26">
+        <v>22.31</v>
+      </c>
+      <c r="C26">
+        <v>3.45</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>0.11</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.24941449579831934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10.63</v>
+      </c>
+      <c r="B27">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="C27">
+        <v>3.45</v>
+      </c>
+      <c r="D27">
+        <v>0.04</v>
+      </c>
+      <c r="E27">
+        <v>0.12</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.29064516806722684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11.65</v>
+      </c>
+      <c r="B28">
+        <v>26.53</v>
+      </c>
+      <c r="C28">
+        <v>0.82</v>
+      </c>
+      <c r="D28">
+        <v>0.03</v>
+      </c>
+      <c r="E28">
+        <v>0.06</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.20820273109243698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>14.53</v>
+      </c>
+      <c r="B29">
+        <v>40.21</v>
+      </c>
+      <c r="C29">
+        <v>3.41</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.3151281512605042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.25</v>
+      </c>
+      <c r="B30">
+        <v>32.85</v>
+      </c>
+      <c r="C30">
+        <v>1.48</v>
+      </c>
+      <c r="D30">
+        <v>0.03</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.19067521008403363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>12.32</v>
+      </c>
+      <c r="B31">
+        <v>30.83</v>
+      </c>
+      <c r="C31">
+        <v>3.59</v>
+      </c>
+      <c r="D31">
+        <v>0.01</v>
+      </c>
+      <c r="E31">
+        <v>0.09</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.27564852941176465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="B34">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="E34">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0.2369</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="T34">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="U34">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="V34">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="W34">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="B35">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.1709</v>
+      </c>
+      <c r="M35">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="P35">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="U35">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="V35">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.8266</v>
+      </c>
+      <c r="D36">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.72409999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.2369</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="B38">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="C38">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.58620000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="B39">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="C39">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="E39">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="B40">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D40">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="E40">
+        <v>0.58620000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.3095</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.13789999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="B42">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D42">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.1313</v>
+      </c>
+      <c r="B43">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D43">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.2414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.1709</v>
+      </c>
+      <c r="B44">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="E44">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="B45">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.2994</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.1724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="C46">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="D46">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.13789999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>